--- a/data_sheets/alcohol_oviposition_template.xlsx
+++ b/data_sheets/alcohol_oviposition_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>SPECIES</t>
   </si>
@@ -65,13 +65,16 @@
   </si>
   <si>
     <t>did females lay? (Y/N)</t>
+  </si>
+  <si>
+    <t>DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +101,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +126,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -134,11 +144,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -147,6 +168,11 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -155,6 +181,11 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,163 +515,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="C2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="C5">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="C8">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="C16">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
         <v>120</v>
       </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
